--- a/medicine/Enfance/Les_Apprentis_Jedi/Les_Apprentis_Jedi.xlsx
+++ b/medicine/Enfance/Les_Apprentis_Jedi/Les_Apprentis_Jedi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Apprentis Jedi (titre original : Jedi Apprentice) est une série de vingt romans, tous écrits par Jude Watson, à l'exception du premier volume, Premières Armes qui lui a été écrit par Dave Wolverton. En France, les livres sont édités chez Pocket Junior et traduits par Patrick Eris. Ces romans sont placés dans l'univers Légendes de Star Wars
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série traite des aventures de Qui-Gon Jinn et Obi-Wan Kenobi avant les événements de La Menace fantôme.
 Les deux romans Les Apprentis Jedi : Édition spéciale, précédèrent la publication de la série Jedi Quest et font le lien entre les deux séries.
@@ -544,7 +558,9 @@
           <t>An -44</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Premières Armes, Pocket Jeunesse, 2002 ((en) The Rising Force, 1999) (Dave Wolverton)
 La Menace surgie du passé, Pocket Jeunesse, 2002 ((en) The Dark Rival, 1999) (Jude Watson)
@@ -582,7 +598,9 @@
           <t>An -43</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Le Combat pour la vérité, Pocket Jeunesse, 2003 ((en) The Fight for Truth, 2000) (Jude Watson)
 La Paix menacée, Pocket Jeunesse, 2003 ((en) The Shattered Peace, 2000) (Jude Watson)
@@ -616,7 +634,9 @@
           <t>Ans -41 à -29</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Édition spéciale I : Trahisons, Pocket Jeunesse, 2005 ((en) Special Edition I: Deceptions, 2001) (Jude Watson)
 La première partie de l'histoire se situe entre les romans Périlleux Sauvetage et Les Liens les plus forts, tandis que la seconde partie se situe au début de la seconde série de romans Star Wars de Jude Watson : Jedi Quest.</t>
@@ -647,7 +667,9 @@
           <t>An -40</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Les Liens les plus forts, Pocket Jeunesse, 2004 ((en) The Ties That Bind, 2001) (Jude Watson)
 La Fin de l'espoir, Pocket Jeunesse, 2004 ((en) The Death of Hope, 2001) (Jude Watson)
@@ -681,7 +703,9 @@
           <t>Ans -39 à -28</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Édition spéciale II : Les Disciples noirs, Pocket Jeunesse, 2005 ((en) Special Edition II: The Followers, 2002)  (Jude Watson)
 La première partie de l'histoire se situe après le dernier volume de la série, Les Erreurs du passé, tandis que la seconde partie se situe au début de la seconde série de romans Star Wars de Jude Watson : Jedi Quest.</t>
